--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/外商资本金.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/外商资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,323 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.07246</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.30232</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>0.32929</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.44301</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.02274</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.17424</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.15634</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.17673</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.98093</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.16754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.00827</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.47479</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.28056</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0.05525</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>0.24896</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1.32013</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.1524</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>10.23475</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.77311</v>
-      </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>0.05404</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1.27083</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.55936</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.0487</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.10364</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.74508</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.23513</v>
-      </c>
-      <c r="AO2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.27198</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.75785</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07507</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.13845</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.27387</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.09267</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0243</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.09229999999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.13257</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.06627</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.14035</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.53154</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.05977</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.02454</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.56215</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>0.06651</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>0.29292</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2.46697</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.64997</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.05493</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>13.13585</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.75653</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>1.03019</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.35941</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1.30714</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.42953</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.21481</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.0717</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.18436</v>
-      </c>
-      <c r="AO3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.80755</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.82001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03072</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.25108</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.42669</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.07967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.53301</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.44862</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1654</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.14463</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.28774</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>3.04876</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.06267</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>0.0772</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>0.40926</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2.85942</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.33209</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>23.1284</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>0.98455</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.9055800000000001</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2.55412</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.16965</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.53969</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.0696</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.00749</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
